--- a/www.eia.gov/electricity/monthly/xls/table_1_05_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_05_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>Table 1.5.B. Utility Scale Facility Net Generation from Petroleum Liquids</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,34 +1389,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>471</v>
+        <v>642</v>
       </c>
       <c r="C7" s="10">
-        <v>2029</v>
+        <v>2042</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.76800000000000002</v>
+        <v>-0.68600000000000005</v>
       </c>
       <c r="E7" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="10">
-        <v>361</v>
+        <v>524</v>
       </c>
       <c r="H7" s="10">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="I7" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="10">
         <v>41</v>
@@ -1427,25 +1427,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C8" s="13">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D8" s="14">
-        <v>-0.81399999999999995</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="E8" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="13">
         <v>8</v>
       </c>
       <c r="G8" s="13">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>18</v>
@@ -1465,13 +1465,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="13">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.79100000000000004</v>
+        <v>-0.79</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>18</v>
@@ -1483,7 +1483,7 @@
         <v>95</v>
       </c>
       <c r="H9" s="13">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>18</v>
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L9" s="13">
         <v>32</v>
@@ -1503,37 +1503,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>228</v>
+        <v>385</v>
       </c>
       <c r="C10" s="13">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.70199999999999996</v>
+        <v>-0.501</v>
       </c>
       <c r="E10" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="13">
         <v>57</v>
       </c>
       <c r="G10" s="13">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="H10" s="13">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I10" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D11" s="14">
-        <v>-0.85299999999999998</v>
+        <v>-0.84499999999999997</v>
       </c>
       <c r="E11" s="13">
         <v>18</v>
       </c>
       <c r="F11" s="13">
-        <v>104</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>18</v>
+        <v>106</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2</v>
       </c>
       <c r="H11" s="13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>18</v>
@@ -1579,25 +1579,25 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D12" s="14">
-        <v>-0.79400000000000004</v>
+        <v>-0.73899999999999999</v>
       </c>
       <c r="E12" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="13">
         <v>11</v>
       </c>
       <c r="G12" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H12" s="13">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>18</v>
@@ -1655,37 +1655,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="C14" s="10">
-        <v>2698</v>
+        <v>2730</v>
       </c>
       <c r="D14" s="11">
-        <v>-0.67600000000000005</v>
+        <v>-0.66700000000000004</v>
       </c>
       <c r="E14" s="10">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F14" s="10">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G14" s="10">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="H14" s="10">
-        <v>1754</v>
+        <v>1782</v>
       </c>
       <c r="I14" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J14" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="10">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L14" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1693,13 +1693,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="13">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.76200000000000001</v>
+        <v>-0.75800000000000001</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>18</v>
@@ -1708,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="G15" s="13">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H15" s="13">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>18</v>
@@ -1731,37 +1731,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="C16" s="13">
-        <v>1870</v>
+        <v>1876</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.69099999999999995</v>
+        <v>-0.68300000000000005</v>
       </c>
       <c r="E16" s="13">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F16" s="13">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G16" s="13">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H16" s="13">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="I16" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L16" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,25 +1769,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C17" s="13">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.57699999999999996</v>
+        <v>-0.56100000000000005</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="13">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="G17" s="13">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="H17" s="13">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>18</v>
@@ -1796,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17" s="13">
         <v>13</v>
@@ -1807,25 +1807,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="C18" s="10">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D18" s="11">
-        <v>-7.0000000000000007E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F18" s="10">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G18" s="10">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H18" s="10">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I18" s="10">
         <v>4</v>
@@ -1834,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="K18" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,31 +1845,31 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C19" s="13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" s="14">
-        <v>0.23599999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="E19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="13">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H19" s="13">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I19" s="13">
         <v>1</v>
       </c>
       <c r="J19" s="13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C20" s="13">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.32300000000000001</v>
+        <v>-0.307</v>
       </c>
       <c r="E20" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F20" s="13">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>18</v>
@@ -1907,13 +1907,13 @@
         <v>18</v>
       </c>
       <c r="J20" s="13">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="K20" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,19 +1921,19 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C21" s="13">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D21" s="14">
-        <v>9.4E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E21" s="13">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F21" s="13">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
@@ -1959,31 +1959,31 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C22" s="13">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D22" s="14">
-        <v>-6.3E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="E22" s="13">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F22" s="13">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G22" s="13">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H22" s="13">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="13">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="K22" s="13">
         <v>3</v>
@@ -1997,19 +1997,19 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="14">
-        <v>0.127</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E23" s="13">
         <v>23</v>
       </c>
       <c r="F23" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13">
         <v>3</v>
@@ -2035,19 +2035,19 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C24" s="10">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D24" s="11">
-        <v>-0.20699999999999999</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F24" s="10">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>18</v>
@@ -2073,37 +2073,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C25" s="13">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D25" s="14">
-        <v>0.20699999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="E25" s="13">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F25" s="13">
-        <v>46</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
       </c>
       <c r="H25" s="13">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L25" s="13">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2111,19 +2111,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26" s="13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D26" s="14">
-        <v>-0.497</v>
+        <v>-0.439</v>
       </c>
       <c r="E26" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F26" s="13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2149,19 +2149,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E27" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>18</v>
@@ -2187,19 +2187,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.33200000000000002</v>
+        <v>-0.28699999999999998</v>
       </c>
       <c r="E28" s="13">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F28" s="13">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>18</v>
@@ -2211,7 +2211,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="13">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K28" s="13">
         <v>0</v>
@@ -2228,16 +2228,16 @@
         <v>6</v>
       </c>
       <c r="C29" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="14">
-        <v>0.27600000000000002</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E29" s="13">
         <v>6</v>
       </c>
       <c r="F29" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2263,31 +2263,31 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C30" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E30" s="13">
+        <v>24</v>
+      </c>
+      <c r="F30" s="13">
+        <v>23</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="13">
         <v>0.02</v>
-      </c>
-      <c r="E30" s="13">
-        <v>21</v>
-      </c>
-      <c r="F30" s="13">
-        <v>21</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0.01</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>18</v>
@@ -2307,7 +2307,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.82499999999999996</v>
+        <v>-0.82399999999999995</v>
       </c>
       <c r="E31" s="13">
         <v>3</v>
@@ -2339,37 +2339,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>1929</v>
+        <v>2053</v>
       </c>
       <c r="C32" s="10">
-        <v>2690</v>
+        <v>2896</v>
       </c>
       <c r="D32" s="11">
-        <v>-0.28299999999999997</v>
+        <v>-0.29099999999999998</v>
       </c>
       <c r="E32" s="10">
-        <v>1421</v>
+        <v>1534</v>
       </c>
       <c r="F32" s="10">
-        <v>1939</v>
+        <v>2091</v>
       </c>
       <c r="G32" s="10">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H32" s="10">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="I32" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J32" s="10">
         <v>21</v>
       </c>
       <c r="K32" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L32" s="10">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,22 +2380,22 @@
         <v>51</v>
       </c>
       <c r="C33" s="13">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D33" s="14">
-        <v>-0.64900000000000002</v>
+        <v>-0.65500000000000003</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="13">
         <v>48</v>
       </c>
       <c r="H33" s="13">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2453,25 +2453,25 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="C35" s="13">
-        <v>458</v>
+        <v>562</v>
       </c>
       <c r="D35" s="14">
-        <v>0.42</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E35" s="13">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="F35" s="13">
-        <v>441</v>
+        <v>543</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="13">
         <v>0</v>
@@ -2479,11 +2479,11 @@
       <c r="J35" s="13">
         <v>0</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>18</v>
+      <c r="K35" s="13">
+        <v>15</v>
       </c>
       <c r="L35" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,37 +2491,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C36" s="13">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.255</v>
+        <v>-0.21299999999999999</v>
       </c>
       <c r="E36" s="13">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F36" s="13">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G36" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H36" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="13">
         <v>3</v>
       </c>
       <c r="K36" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L36" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2529,25 +2529,25 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C37" s="13">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D37" s="14">
-        <v>-0.23599999999999999</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="E37" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" s="13">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H37" s="13">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>18</v>
@@ -2567,37 +2567,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C38" s="13">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="D38" s="14">
-        <v>-0.39900000000000002</v>
+        <v>-0.39800000000000002</v>
       </c>
       <c r="E38" s="13">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F38" s="13">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="G38" s="13">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H38" s="13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="13">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L38" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,19 +2605,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C39" s="13">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D39" s="14">
-        <v>-0.42699999999999999</v>
+        <v>-0.42099999999999999</v>
       </c>
       <c r="E39" s="13">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F39" s="13">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>18</v>
@@ -2629,13 +2629,13 @@
         <v>18</v>
       </c>
       <c r="J39" s="13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K39" s="13">
+        <v>15</v>
+      </c>
+      <c r="L39" s="13">
         <v>14</v>
-      </c>
-      <c r="L39" s="13">
-        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2643,25 +2643,25 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C40" s="13">
-        <v>1028</v>
+        <v>1073</v>
       </c>
       <c r="D40" s="14">
-        <v>-0.505</v>
+        <v>-0.51400000000000001</v>
       </c>
       <c r="E40" s="13">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F40" s="13">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="G40" s="13">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H40" s="13">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>18</v>
@@ -2673,7 +2673,7 @@
         <v>18</v>
       </c>
       <c r="L40" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,19 +2681,19 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C41" s="13">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.14299999999999999</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="E41" s="13">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F41" s="13">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G41" s="13">
         <v>4</v>
@@ -2719,25 +2719,25 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
+        <v>272</v>
+      </c>
+      <c r="C42" s="10">
+        <v>309</v>
+      </c>
+      <c r="D42" s="11">
+        <v>-0.122</v>
+      </c>
+      <c r="E42" s="10">
         <v>246</v>
       </c>
-      <c r="C42" s="10">
-        <v>289</v>
-      </c>
-      <c r="D42" s="11">
-        <v>-0.14799999999999999</v>
-      </c>
-      <c r="E42" s="10">
-        <v>222</v>
-      </c>
       <c r="F42" s="10">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G42" s="10">
         <v>5</v>
       </c>
       <c r="H42" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>18</v>
@@ -2746,10 +2746,10 @@
         <v>0.02</v>
       </c>
       <c r="K42" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L42" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C43" s="13">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.39</v>
+        <v>-0.40600000000000003</v>
       </c>
       <c r="E43" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="13">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G43" s="13">
         <v>5</v>
       </c>
       <c r="H43" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="L43" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,19 +2795,19 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C44" s="13">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D44" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="E44" s="13">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F44" s="13">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2833,19 +2833,19 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="14">
-        <v>0.17499999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E45" s="13">
         <v>13</v>
       </c>
       <c r="F45" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="13">
         <v>2</v>
@@ -2871,19 +2871,19 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C46" s="13">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F46" s="13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>18</v>
@@ -2909,25 +2909,25 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C47" s="10">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D47" s="11">
-        <v>-0.443</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="E47" s="10">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F47" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G47" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H47" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>18</v>
@@ -2939,7 +2939,7 @@
         <v>18</v>
       </c>
       <c r="L47" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,37 +2947,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C48" s="13">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.4</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="E48" s="13">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F48" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G48" s="13">
+        <v>9</v>
+      </c>
+      <c r="H48" s="13">
+        <v>11</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="13">
         <v>8</v>
-      </c>
-      <c r="H48" s="13">
-        <v>9</v>
-      </c>
-      <c r="I48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="13">
-        <v>0</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="13">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2985,25 +2985,25 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="13">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.81200000000000006</v>
+        <v>-0.80600000000000005</v>
       </c>
       <c r="E49" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G49" s="13">
         <v>2</v>
       </c>
       <c r="H49" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3023,19 +3023,19 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
+        <v>17</v>
+      </c>
+      <c r="C50" s="13">
+        <v>9</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.877</v>
+      </c>
+      <c r="E50" s="13">
         <v>16</v>
       </c>
-      <c r="C50" s="13">
+      <c r="F50" s="13">
         <v>8</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="E50" s="13">
-        <v>15</v>
-      </c>
-      <c r="F50" s="13">
-        <v>7</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
@@ -3061,25 +3061,25 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C51" s="13">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.32500000000000001</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="E51" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G51" s="13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H51" s="13">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>18</v>
@@ -3091,7 +3091,7 @@
         <v>18</v>
       </c>
       <c r="L51" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,22 +3099,22 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C52" s="10">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D52" s="11">
-        <v>3.3000000000000002E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F52" s="10">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G52" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" s="10">
         <v>15</v>
@@ -3137,19 +3137,19 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C53" s="13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D53" s="14">
-        <v>5.8000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F53" s="13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3174,20 +3174,20 @@
       <c r="A54" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>18</v>
+      <c r="B54" s="13">
+        <v>8</v>
       </c>
       <c r="C54" s="13">
         <v>6</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>18</v>
+      <c r="D54" s="14">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E54" s="13">
+        <v>8</v>
       </c>
       <c r="F54" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54" s="13">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="L54" s="13">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,7 +3216,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="13">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>18</v>
@@ -3225,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="13">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G55" s="13">
         <v>0</v>
@@ -3251,25 +3251,25 @@
         <v>66</v>
       </c>
       <c r="B56" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="14">
-        <v>0.32900000000000001</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="13">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G56" s="13">
         <v>15</v>
       </c>
       <c r="H56" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,16 +3292,16 @@
         <v>11</v>
       </c>
       <c r="C57" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.23</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="E57" s="13">
         <v>8</v>
       </c>
       <c r="F57" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" s="13">
         <v>3</v>
@@ -3327,19 +3327,19 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C58" s="13">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D58" s="14">
-        <v>-0.22600000000000001</v>
+        <v>-0.248</v>
       </c>
       <c r="E58" s="13">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F58" s="13">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
@@ -3365,19 +3365,19 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C59" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D59" s="14">
-        <v>0.66100000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E59" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F59" s="13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>18</v>
@@ -3395,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="L59" s="13">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3403,19 +3403,19 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C60" s="13">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D60" s="14">
-        <v>8.5999999999999993E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F60" s="13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G60" s="13">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>18</v>
       </c>
       <c r="L60" s="13">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,25 +3441,25 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C61" s="10">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D61" s="11">
-        <v>9.6000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F61" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G61" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>18</v>
@@ -3468,10 +3468,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L61" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3479,31 +3479,31 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C62" s="13">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D62" s="14">
-        <v>0.11799999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="E62" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F62" s="13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G62" s="13">
         <v>5</v>
       </c>
       <c r="H62" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J62" s="13">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="K62" s="13">
         <v>51</v>
@@ -3520,16 +3520,16 @@
         <v>3</v>
       </c>
       <c r="C63" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="14">
-        <v>-0.47499999999999998</v>
+        <v>-0.54200000000000004</v>
       </c>
       <c r="E63" s="13">
         <v>3</v>
       </c>
       <c r="F63" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="13">
         <v>0</v>
@@ -3555,13 +3555,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
+        <v>18</v>
+      </c>
+      <c r="C64" s="13">
         <v>17</v>
       </c>
-      <c r="C64" s="13">
-        <v>14</v>
-      </c>
       <c r="D64" s="14">
-        <v>0.189</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>18</v>
@@ -3570,22 +3570,22 @@
         <v>1</v>
       </c>
       <c r="G64" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K64" s="13">
         <v>7</v>
       </c>
       <c r="L64" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3593,37 +3593,37 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>5913</v>
+        <v>6511</v>
       </c>
       <c r="C65" s="10">
-        <v>6522</v>
+        <v>7147</v>
       </c>
       <c r="D65" s="11">
-        <v>-9.2999999999999999E-2</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>4544</v>
+        <v>4996</v>
       </c>
       <c r="F65" s="10">
-        <v>4968</v>
+        <v>5445</v>
       </c>
       <c r="G65" s="10">
-        <v>1176</v>
+        <v>1297</v>
       </c>
       <c r="H65" s="10">
-        <v>1336</v>
+        <v>1464</v>
       </c>
       <c r="I65" s="10">
+        <v>9</v>
+      </c>
+      <c r="J65" s="10">
         <v>8</v>
       </c>
-      <c r="J65" s="10">
-        <v>7</v>
-      </c>
       <c r="K65" s="10">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L65" s="10">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3631,19 +3631,19 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>594</v>
+        <v>677</v>
       </c>
       <c r="C66" s="13">
+        <v>700</v>
+      </c>
+      <c r="D66" s="14">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="E66" s="13">
+        <v>636</v>
+      </c>
+      <c r="F66" s="13">
         <v>652</v>
-      </c>
-      <c r="D66" s="14">
-        <v>-8.7999999999999995E-2</v>
-      </c>
-      <c r="E66" s="13">
-        <v>557</v>
-      </c>
-      <c r="F66" s="13">
-        <v>608</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3655,13 +3655,13 @@
         <v>5</v>
       </c>
       <c r="J66" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K66" s="13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L66" s="13">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,25 +3669,25 @@
         <v>77</v>
       </c>
       <c r="B67" s="13">
-        <v>5319</v>
+        <v>5833</v>
       </c>
       <c r="C67" s="13">
-        <v>5870</v>
+        <v>6447</v>
       </c>
       <c r="D67" s="14">
-        <v>-9.4E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>3987</v>
+        <v>4361</v>
       </c>
       <c r="F67" s="13">
-        <v>4361</v>
+        <v>4792</v>
       </c>
       <c r="G67" s="13">
-        <v>1176</v>
+        <v>1297</v>
       </c>
       <c r="H67" s="13">
-        <v>1336</v>
+        <v>1464</v>
       </c>
       <c r="I67" s="13">
         <v>3</v>
@@ -3696,10 +3696,10 @@
         <v>3</v>
       </c>
       <c r="K67" s="13">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L67" s="13">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,37 +3707,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>10470</v>
+        <v>11528</v>
       </c>
       <c r="C68" s="10">
-        <v>15429</v>
+        <v>16424</v>
       </c>
       <c r="D68" s="11">
-        <v>-0.32100000000000001</v>
+        <v>-0.29799999999999999</v>
       </c>
       <c r="E68" s="10">
-        <v>7240</v>
+        <v>7913</v>
       </c>
       <c r="F68" s="10">
-        <v>9018</v>
+        <v>9736</v>
       </c>
       <c r="G68" s="10">
-        <v>2722</v>
+        <v>3060</v>
       </c>
       <c r="H68" s="10">
-        <v>5751</v>
+        <v>5987</v>
       </c>
       <c r="I68" s="10">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J68" s="10">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K68" s="10">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="L68" s="10">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
